--- a/טבלה_חדשה_למחשבון_כולל_מקצוע_ותמריץ.xlsx
+++ b/טבלה_חדשה_למחשבון_כולל_מקצוע_ותמריץ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hila_n\Desktop\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72532E76-2E34-4DD7-97C1-C1366B0D8754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB45D7-4DCD-4BD8-AD5D-B6D661CD9337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="49">
   <si>
     <t>רמת פעילות</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>אם משנים את הטבלה – מריצים שוב export_to_datajs.py כדי לעדכן data.js.</t>
+  </si>
+  <si>
+    <t>אחרי קק"צ</t>
+  </si>
+  <si>
+    <t>רמה א'+</t>
   </si>
 </sst>
 </file>
@@ -532,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -713,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -979,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1017,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1283,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1321,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1587,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1625,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1891,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1929,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2195,7 +2201,7 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2233,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2499,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2537,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2803,7 +2809,7 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2841,7 +2847,7 @@
         <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3107,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3145,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3332,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
@@ -3344,7 +3350,7 @@
         <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L74">
         <v>15123.38</v>
@@ -3370,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -3382,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L75">
         <v>15833.38</v>
@@ -3408,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3420,7 +3426,7 @@
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L76">
         <v>15789.45</v>
@@ -3446,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3458,7 +3464,7 @@
         <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L77">
         <v>16499.45</v>
@@ -3484,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H78" t="s">
         <v>19</v>
@@ -3522,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
         <v>19</v>
@@ -3560,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -3598,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
@@ -3636,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
         <v>16</v>
@@ -3648,7 +3654,7 @@
         <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L82">
         <v>15789.45</v>
@@ -3674,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H83" t="s">
         <v>16</v>
@@ -3686,7 +3692,7 @@
         <v>18</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L83">
         <v>16499.45</v>
@@ -3712,10 +3718,10 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3724,7 +3730,7 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L84">
         <v>16703.53</v>
@@ -3750,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3762,7 +3768,7 @@
         <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L85">
         <v>17413.53</v>
@@ -3788,7 +3794,7 @@
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H86" t="s">
         <v>19</v>
@@ -3826,7 +3832,7 @@
         <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
@@ -3864,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H88" t="s">
         <v>21</v>
@@ -3902,7 +3908,7 @@
         <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
@@ -3940,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H90" t="s">
         <v>16</v>
@@ -3952,7 +3958,7 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L90">
         <v>16703.53</v>
@@ -3978,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H91" t="s">
         <v>16</v>
@@ -3990,7 +3996,7 @@
         <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L91">
         <v>17413.53</v>
@@ -4016,10 +4022,10 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4028,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L92">
         <v>16703.53</v>
@@ -4054,10 +4060,10 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4066,7 +4072,7 @@
         <v>22</v>
       </c>
       <c r="K93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L93">
         <v>17413.53</v>
@@ -4092,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
         <v>19</v>
@@ -4130,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H95" t="s">
         <v>19</v>
@@ -4168,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
         <v>21</v>
@@ -4206,7 +4212,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
         <v>21</v>
@@ -4244,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
         <v>16</v>
@@ -4256,7 +4262,7 @@
         <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L98">
         <v>15123.38</v>
@@ -4282,7 +4288,7 @@
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
         <v>16</v>
@@ -4294,7 +4300,7 @@
         <v>14</v>
       </c>
       <c r="K99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L99">
         <v>15833.38</v>
@@ -4320,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4332,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L100">
         <v>15789.45</v>
@@ -4358,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4370,7 +4376,7 @@
         <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L101">
         <v>16499.45</v>
@@ -4396,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
         <v>19</v>
@@ -4434,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H103" t="s">
         <v>19</v>
@@ -4472,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
         <v>21</v>
@@ -4510,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H105" t="s">
         <v>21</v>
@@ -4548,7 +4554,7 @@
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
         <v>16</v>
@@ -4560,7 +4566,7 @@
         <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L106">
         <v>15789.45</v>
@@ -4586,7 +4592,7 @@
         <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H107" t="s">
         <v>16</v>
@@ -4598,7 +4604,7 @@
         <v>18</v>
       </c>
       <c r="K107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L107">
         <v>16499.45</v>
@@ -4624,10 +4630,10 @@
         <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H108" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4636,7 +4642,7 @@
         <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L108">
         <v>16703.53</v>
@@ -4662,10 +4668,10 @@
         <v>6</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H109" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -4674,7 +4680,7 @@
         <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L109">
         <v>17413.53</v>
@@ -4700,7 +4706,7 @@
         <v>6</v>
       </c>
       <c r="G110" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H110" t="s">
         <v>19</v>
@@ -4738,7 +4744,7 @@
         <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H111" t="s">
         <v>19</v>
@@ -4776,7 +4782,7 @@
         <v>6</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H112" t="s">
         <v>21</v>
@@ -4814,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H113" t="s">
         <v>21</v>
@@ -4852,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H114" t="s">
         <v>16</v>
@@ -4864,7 +4870,7 @@
         <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L114">
         <v>16703.53</v>
@@ -4890,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
         <v>16</v>
@@ -4902,7 +4908,7 @@
         <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L115">
         <v>17413.53</v>
@@ -4928,10 +4934,10 @@
         <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H116" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4940,7 +4946,7 @@
         <v>22</v>
       </c>
       <c r="K116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L116">
         <v>16703.53</v>
@@ -4966,10 +4972,10 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4978,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L117">
         <v>17413.53</v>
@@ -5004,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H118" t="s">
         <v>19</v>
@@ -5042,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
@@ -5080,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
@@ -5118,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -5235,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5273,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5539,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5577,7 +5583,7 @@
         <v>15</v>
       </c>
       <c r="H133" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5843,7 +5849,7 @@
         <v>15</v>
       </c>
       <c r="H140" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -5881,7 +5887,7 @@
         <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6147,7 +6153,7 @@
         <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6185,7 +6191,7 @@
         <v>15</v>
       </c>
       <c r="H149" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6451,7 +6457,7 @@
         <v>15</v>
       </c>
       <c r="H156" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6489,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6755,7 +6761,7 @@
         <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -6793,7 +6799,7 @@
         <v>15</v>
       </c>
       <c r="H165" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -7059,7 +7065,7 @@
         <v>24</v>
       </c>
       <c r="H172" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -7097,7 +7103,7 @@
         <v>24</v>
       </c>
       <c r="H173" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -7363,7 +7369,7 @@
         <v>24</v>
       </c>
       <c r="H180" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -7401,7 +7407,7 @@
         <v>24</v>
       </c>
       <c r="H181" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7667,7 +7673,7 @@
         <v>24</v>
       </c>
       <c r="H188" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -7705,7 +7711,7 @@
         <v>24</v>
       </c>
       <c r="H189" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -7892,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H194" t="s">
         <v>16</v>
@@ -7904,7 +7910,7 @@
         <v>14</v>
       </c>
       <c r="K194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L194">
         <v>16601.3</v>
@@ -7930,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H195" t="s">
         <v>16</v>
@@ -7942,7 +7948,7 @@
         <v>14</v>
       </c>
       <c r="K195" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L195">
         <v>17311.3</v>
@@ -7968,10 +7974,10 @@
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H196" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -7980,7 +7986,7 @@
         <v>18</v>
       </c>
       <c r="K196" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L196">
         <v>17446.439999999999</v>
@@ -8006,10 +8012,10 @@
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H197" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -8018,7 +8024,7 @@
         <v>18</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L197">
         <v>18156.439999999999</v>
@@ -8044,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H198" t="s">
         <v>19</v>
@@ -8082,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H199" t="s">
         <v>19</v>
@@ -8120,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H200" t="s">
         <v>21</v>
@@ -8158,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H201" t="s">
         <v>21</v>
@@ -8196,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="G202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H202" t="s">
         <v>16</v>
@@ -8208,7 +8214,7 @@
         <v>18</v>
       </c>
       <c r="K202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L202">
         <v>17446.439999999999</v>
@@ -8234,7 +8240,7 @@
         <v>6</v>
       </c>
       <c r="G203" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H203" t="s">
         <v>16</v>
@@ -8246,7 +8252,7 @@
         <v>18</v>
       </c>
       <c r="K203" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L203">
         <v>18156.439999999999</v>
@@ -8272,10 +8278,10 @@
         <v>6</v>
       </c>
       <c r="G204" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H204" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8284,7 +8290,7 @@
         <v>22</v>
       </c>
       <c r="K204" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L204">
         <v>18352.62</v>
@@ -8310,10 +8316,10 @@
         <v>6</v>
       </c>
       <c r="G205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H205" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8322,7 +8328,7 @@
         <v>22</v>
       </c>
       <c r="K205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L205">
         <v>19062.62</v>
@@ -8348,7 +8354,7 @@
         <v>6</v>
       </c>
       <c r="G206" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H206" t="s">
         <v>19</v>
@@ -8386,7 +8392,7 @@
         <v>6</v>
       </c>
       <c r="G207" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H207" t="s">
         <v>19</v>
@@ -8424,7 +8430,7 @@
         <v>6</v>
       </c>
       <c r="G208" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H208" t="s">
         <v>21</v>
@@ -8462,7 +8468,7 @@
         <v>6</v>
       </c>
       <c r="G209" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H209" t="s">
         <v>21</v>
@@ -8500,7 +8506,7 @@
         <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H210" t="s">
         <v>16</v>
@@ -8512,7 +8518,7 @@
         <v>22</v>
       </c>
       <c r="K210" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L210">
         <v>18352.62</v>
@@ -8538,7 +8544,7 @@
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H211" t="s">
         <v>16</v>
@@ -8550,7 +8556,7 @@
         <v>22</v>
       </c>
       <c r="K211" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L211">
         <v>19062.62</v>
@@ -8576,10 +8582,10 @@
         <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H212" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -8588,7 +8594,7 @@
         <v>22</v>
       </c>
       <c r="K212" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L212">
         <v>18352.62</v>
@@ -8614,10 +8620,10 @@
         <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H213" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -8626,7 +8632,7 @@
         <v>22</v>
       </c>
       <c r="K213" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L213">
         <v>19062.62</v>
@@ -8652,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H214" t="s">
         <v>19</v>
@@ -8690,7 +8696,7 @@
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
@@ -8728,7 +8734,7 @@
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H216" t="s">
         <v>21</v>
@@ -8766,7 +8772,7 @@
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H217" t="s">
         <v>21</v>
@@ -8804,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H218" t="s">
         <v>16</v>
@@ -8816,7 +8822,7 @@
         <v>14</v>
       </c>
       <c r="K218" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L218">
         <v>16601.3</v>
@@ -8842,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="G219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H219" t="s">
         <v>16</v>
@@ -8854,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="K219" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L219">
         <v>17311.3</v>
@@ -8880,10 +8886,10 @@
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H220" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -8892,7 +8898,7 @@
         <v>18</v>
       </c>
       <c r="K220" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L220">
         <v>17446.439999999999</v>
@@ -8918,10 +8924,10 @@
         <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H221" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -8930,7 +8936,7 @@
         <v>18</v>
       </c>
       <c r="K221" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L221">
         <v>18156.439999999999</v>
@@ -8956,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
@@ -8994,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="G223" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -9032,7 +9038,7 @@
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H224" t="s">
         <v>21</v>
@@ -9070,7 +9076,7 @@
         <v>3</v>
       </c>
       <c r="G225" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H225" t="s">
         <v>21</v>
@@ -9108,7 +9114,7 @@
         <v>6</v>
       </c>
       <c r="G226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H226" t="s">
         <v>16</v>
@@ -9120,7 +9126,7 @@
         <v>18</v>
       </c>
       <c r="K226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L226">
         <v>17446.439999999999</v>
@@ -9146,7 +9152,7 @@
         <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H227" t="s">
         <v>16</v>
@@ -9158,7 +9164,7 @@
         <v>18</v>
       </c>
       <c r="K227" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L227">
         <v>18156.439999999999</v>
@@ -9184,10 +9190,10 @@
         <v>6</v>
       </c>
       <c r="G228" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H228" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -9196,7 +9202,7 @@
         <v>22</v>
       </c>
       <c r="K228" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L228">
         <v>18352.62</v>
@@ -9222,10 +9228,10 @@
         <v>6</v>
       </c>
       <c r="G229" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H229" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -9234,7 +9240,7 @@
         <v>22</v>
       </c>
       <c r="K229" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L229">
         <v>19062.62</v>
@@ -9260,7 +9266,7 @@
         <v>6</v>
       </c>
       <c r="G230" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H230" t="s">
         <v>19</v>
@@ -9298,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="G231" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H231" t="s">
         <v>19</v>
@@ -9336,7 +9342,7 @@
         <v>6</v>
       </c>
       <c r="G232" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H232" t="s">
         <v>21</v>
@@ -9374,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="G233" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H233" t="s">
         <v>21</v>
@@ -9412,7 +9418,7 @@
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H234" t="s">
         <v>16</v>
@@ -9424,7 +9430,7 @@
         <v>22</v>
       </c>
       <c r="K234" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L234">
         <v>18352.62</v>
@@ -9450,7 +9456,7 @@
         <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H235" t="s">
         <v>16</v>
@@ -9462,7 +9468,7 @@
         <v>22</v>
       </c>
       <c r="K235" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L235">
         <v>19062.62</v>
@@ -9488,10 +9494,10 @@
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H236" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -9500,7 +9506,7 @@
         <v>22</v>
       </c>
       <c r="K236" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L236">
         <v>18352.62</v>
@@ -9526,10 +9532,10 @@
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H237" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -9538,7 +9544,7 @@
         <v>22</v>
       </c>
       <c r="K237" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L237">
         <v>19062.62</v>
@@ -9564,7 +9570,7 @@
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H238" t="s">
         <v>19</v>
@@ -9602,7 +9608,7 @@
         <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H239" t="s">
         <v>19</v>
@@ -9640,7 +9646,7 @@
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H240" t="s">
         <v>21</v>
@@ -9678,7 +9684,7 @@
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H241" t="s">
         <v>21</v>
@@ -9698,7 +9704,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
@@ -9736,7 +9742,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B243" t="s">
         <v>13</v>
@@ -9774,7 +9780,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B244" t="s">
         <v>13</v>
@@ -9795,7 +9801,7 @@
         <v>15</v>
       </c>
       <c r="H244" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -9812,7 +9818,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
         <v>13</v>
@@ -9833,7 +9839,7 @@
         <v>15</v>
       </c>
       <c r="H245" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -9850,7 +9856,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
@@ -9888,7 +9894,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B247" t="s">
         <v>13</v>
@@ -9926,7 +9932,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
@@ -10002,7 +10008,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
@@ -10040,7 +10046,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
@@ -10078,7 +10084,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
         <v>13</v>
@@ -10099,7 +10105,7 @@
         <v>15</v>
       </c>
       <c r="H252" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -10116,7 +10122,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B253" t="s">
         <v>13</v>
@@ -10137,7 +10143,7 @@
         <v>15</v>
       </c>
       <c r="H253" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -10154,7 +10160,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -10192,7 +10198,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
@@ -10230,7 +10236,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B256" t="s">
         <v>13</v>
@@ -10268,7 +10274,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s">
         <v>13</v>
@@ -10306,7 +10312,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
@@ -10344,7 +10350,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s">
         <v>13</v>
@@ -10382,7 +10388,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B260" t="s">
         <v>13</v>
@@ -10403,7 +10409,7 @@
         <v>15</v>
       </c>
       <c r="H260" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -10420,7 +10426,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B261" t="s">
         <v>13</v>
@@ -10441,7 +10447,7 @@
         <v>15</v>
       </c>
       <c r="H261" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -10458,7 +10464,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B262" t="s">
         <v>13</v>
@@ -10496,7 +10502,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B263" t="s">
         <v>13</v>
@@ -10534,7 +10540,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
@@ -10572,7 +10578,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s">
         <v>13</v>
@@ -10610,7 +10616,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -10648,7 +10654,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B267" t="s">
         <v>13</v>
@@ -10686,7 +10692,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B268" t="s">
         <v>13</v>
@@ -10707,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -10724,7 +10730,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
@@ -10745,7 +10751,7 @@
         <v>15</v>
       </c>
       <c r="H269" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -10762,7 +10768,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -10800,7 +10806,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
@@ -10838,7 +10844,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B272" t="s">
         <v>13</v>
@@ -10876,7 +10882,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B273" t="s">
         <v>13</v>
@@ -10914,7 +10920,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
@@ -10952,7 +10958,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B275" t="s">
         <v>13</v>
@@ -10990,7 +10996,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B276" t="s">
         <v>13</v>
@@ -11011,7 +11017,7 @@
         <v>15</v>
       </c>
       <c r="H276" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -11028,7 +11034,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B277" t="s">
         <v>13</v>
@@ -11049,7 +11055,7 @@
         <v>15</v>
       </c>
       <c r="H277" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -11066,7 +11072,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
@@ -11104,7 +11110,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B279" t="s">
         <v>13</v>
@@ -11142,7 +11148,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B280" t="s">
         <v>13</v>
@@ -11180,7 +11186,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B281" t="s">
         <v>13</v>
@@ -11218,7 +11224,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B282" t="s">
         <v>13</v>
@@ -11256,7 +11262,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B283" t="s">
         <v>13</v>
@@ -11294,7 +11300,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B284" t="s">
         <v>13</v>
@@ -11315,7 +11321,7 @@
         <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -11332,7 +11338,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B285" t="s">
         <v>13</v>
@@ -11353,7 +11359,7 @@
         <v>15</v>
       </c>
       <c r="H285" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I285">
         <v>1</v>
@@ -11370,7 +11376,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -11408,7 +11414,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B287" t="s">
         <v>13</v>
@@ -11446,7 +11452,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B288" t="s">
         <v>13</v>
@@ -11484,7 +11490,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B289" t="s">
         <v>13</v>
@@ -11522,7 +11528,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B290" t="s">
         <v>13</v>
@@ -11560,7 +11566,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B291" t="s">
         <v>13</v>
@@ -11598,7 +11604,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B292" t="s">
         <v>13</v>
@@ -11619,7 +11625,7 @@
         <v>24</v>
       </c>
       <c r="H292" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -11636,7 +11642,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B293" t="s">
         <v>13</v>
@@ -11657,7 +11663,7 @@
         <v>24</v>
       </c>
       <c r="H293" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -11674,7 +11680,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B294" t="s">
         <v>13</v>
@@ -11712,7 +11718,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B295" t="s">
         <v>13</v>
@@ -11750,7 +11756,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B296" t="s">
         <v>13</v>
@@ -11788,7 +11794,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B297" t="s">
         <v>13</v>
@@ -11826,7 +11832,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B298" t="s">
         <v>13</v>
@@ -11864,7 +11870,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B299" t="s">
         <v>13</v>
@@ -11902,7 +11908,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B300" t="s">
         <v>13</v>
@@ -11923,7 +11929,7 @@
         <v>24</v>
       </c>
       <c r="H300" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -11940,7 +11946,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B301" t="s">
         <v>13</v>
@@ -11961,7 +11967,7 @@
         <v>24</v>
       </c>
       <c r="H301" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -11978,7 +11984,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B302" t="s">
         <v>13</v>
@@ -12016,7 +12022,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B303" t="s">
         <v>13</v>
@@ -12054,7 +12060,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B304" t="s">
         <v>13</v>
@@ -12092,7 +12098,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
@@ -12130,7 +12136,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B306" t="s">
         <v>13</v>
@@ -12168,7 +12174,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B307" t="s">
         <v>13</v>
@@ -12206,7 +12212,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
@@ -12227,7 +12233,7 @@
         <v>24</v>
       </c>
       <c r="H308" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -12244,7 +12250,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s">
         <v>13</v>
@@ -12265,7 +12271,7 @@
         <v>24</v>
       </c>
       <c r="H309" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -12282,7 +12288,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B310" t="s">
         <v>13</v>
@@ -12320,7 +12326,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B311" t="s">
         <v>13</v>
@@ -12358,7 +12364,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B312" t="s">
         <v>13</v>
@@ -12396,7 +12402,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B313" t="s">
         <v>13</v>
@@ -12434,7 +12440,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B314" t="s">
         <v>13</v>
@@ -12452,7 +12458,7 @@
         <v>3</v>
       </c>
       <c r="G314" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H314" t="s">
         <v>16</v>
@@ -12464,7 +12470,7 @@
         <v>14</v>
       </c>
       <c r="K314" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L314">
         <v>17181.46</v>
@@ -12472,7 +12478,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s">
         <v>13</v>
@@ -12490,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="G315" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H315" t="s">
         <v>16</v>
@@ -12502,7 +12508,7 @@
         <v>14</v>
       </c>
       <c r="K315" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L315">
         <v>17891.46</v>
@@ -12510,7 +12516,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B316" t="s">
         <v>13</v>
@@ -12528,10 +12534,10 @@
         <v>3</v>
       </c>
       <c r="G316" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H316" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -12540,7 +12546,7 @@
         <v>18</v>
       </c>
       <c r="K316" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L316">
         <v>17963.169999999998</v>
@@ -12548,7 +12554,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B317" t="s">
         <v>13</v>
@@ -12566,10 +12572,10 @@
         <v>3</v>
       </c>
       <c r="G317" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H317" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -12578,7 +12584,7 @@
         <v>18</v>
       </c>
       <c r="K317" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L317">
         <v>18673.169999999998</v>
@@ -12586,7 +12592,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B318" t="s">
         <v>13</v>
@@ -12604,7 +12610,7 @@
         <v>3</v>
       </c>
       <c r="G318" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H318" t="s">
         <v>19</v>
@@ -12624,7 +12630,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B319" t="s">
         <v>13</v>
@@ -12642,7 +12648,7 @@
         <v>3</v>
       </c>
       <c r="G319" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H319" t="s">
         <v>19</v>
@@ -12662,7 +12668,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s">
         <v>13</v>
@@ -12680,7 +12686,7 @@
         <v>3</v>
       </c>
       <c r="G320" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H320" t="s">
         <v>21</v>
@@ -12700,7 +12706,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B321" t="s">
         <v>13</v>
@@ -12718,7 +12724,7 @@
         <v>3</v>
       </c>
       <c r="G321" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H321" t="s">
         <v>21</v>
@@ -12738,7 +12744,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B322" t="s">
         <v>13</v>
@@ -12756,7 +12762,7 @@
         <v>6</v>
       </c>
       <c r="G322" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H322" t="s">
         <v>16</v>
@@ -12768,7 +12774,7 @@
         <v>18</v>
       </c>
       <c r="K322" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L322">
         <v>17963.169999999998</v>
@@ -12776,7 +12782,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B323" t="s">
         <v>13</v>
@@ -12794,7 +12800,7 @@
         <v>6</v>
       </c>
       <c r="G323" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H323" t="s">
         <v>16</v>
@@ -12806,7 +12812,7 @@
         <v>18</v>
       </c>
       <c r="K323" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L323">
         <v>18673.169999999998</v>
@@ -12814,7 +12820,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B324" t="s">
         <v>13</v>
@@ -12832,10 +12838,10 @@
         <v>6</v>
       </c>
       <c r="G324" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H324" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -12844,7 +12850,7 @@
         <v>22</v>
       </c>
       <c r="K324" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L324">
         <v>19041.05</v>
@@ -12852,7 +12858,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B325" t="s">
         <v>13</v>
@@ -12870,10 +12876,10 @@
         <v>6</v>
       </c>
       <c r="G325" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H325" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -12882,7 +12888,7 @@
         <v>22</v>
       </c>
       <c r="K325" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L325">
         <v>19751.05</v>
@@ -12890,7 +12896,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B326" t="s">
         <v>13</v>
@@ -12908,7 +12914,7 @@
         <v>6</v>
       </c>
       <c r="G326" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H326" t="s">
         <v>19</v>
@@ -12928,7 +12934,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B327" t="s">
         <v>13</v>
@@ -12946,7 +12952,7 @@
         <v>6</v>
       </c>
       <c r="G327" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H327" t="s">
         <v>19</v>
@@ -12966,7 +12972,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B328" t="s">
         <v>13</v>
@@ -12984,7 +12990,7 @@
         <v>6</v>
       </c>
       <c r="G328" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H328" t="s">
         <v>21</v>
@@ -13004,7 +13010,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s">
         <v>13</v>
@@ -13022,7 +13028,7 @@
         <v>6</v>
       </c>
       <c r="G329" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H329" t="s">
         <v>21</v>
@@ -13042,7 +13048,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s">
         <v>13</v>
@@ -13060,7 +13066,7 @@
         <v>10</v>
       </c>
       <c r="G330" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H330" t="s">
         <v>16</v>
@@ -13072,7 +13078,7 @@
         <v>22</v>
       </c>
       <c r="K330" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L330">
         <v>19041.05</v>
@@ -13080,7 +13086,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s">
         <v>13</v>
@@ -13098,7 +13104,7 @@
         <v>10</v>
       </c>
       <c r="G331" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H331" t="s">
         <v>16</v>
@@ -13110,7 +13116,7 @@
         <v>22</v>
       </c>
       <c r="K331" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L331">
         <v>19751.05</v>
@@ -13118,7 +13124,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s">
         <v>13</v>
@@ -13136,10 +13142,10 @@
         <v>10</v>
       </c>
       <c r="G332" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H332" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -13148,7 +13154,7 @@
         <v>22</v>
       </c>
       <c r="K332" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L332">
         <v>19041.05</v>
@@ -13156,7 +13162,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B333" t="s">
         <v>13</v>
@@ -13174,10 +13180,10 @@
         <v>10</v>
       </c>
       <c r="G333" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H333" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I333">
         <v>1</v>
@@ -13186,7 +13192,7 @@
         <v>22</v>
       </c>
       <c r="K333" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L333">
         <v>19751.05</v>
@@ -13194,7 +13200,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B334" t="s">
         <v>13</v>
@@ -13212,7 +13218,7 @@
         <v>10</v>
       </c>
       <c r="G334" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H334" t="s">
         <v>19</v>
@@ -13232,7 +13238,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s">
         <v>13</v>
@@ -13250,7 +13256,7 @@
         <v>10</v>
       </c>
       <c r="G335" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H335" t="s">
         <v>19</v>
@@ -13270,7 +13276,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B336" t="s">
         <v>13</v>
@@ -13288,7 +13294,7 @@
         <v>10</v>
       </c>
       <c r="G336" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H336" t="s">
         <v>21</v>
@@ -13308,7 +13314,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B337" t="s">
         <v>13</v>
@@ -13326,7 +13332,7 @@
         <v>10</v>
       </c>
       <c r="G337" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H337" t="s">
         <v>21</v>
@@ -13346,7 +13352,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B338" t="s">
         <v>13</v>
@@ -13364,7 +13370,7 @@
         <v>3</v>
       </c>
       <c r="G338" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H338" t="s">
         <v>16</v>
@@ -13376,7 +13382,7 @@
         <v>14</v>
       </c>
       <c r="K338" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L338">
         <v>17181.46</v>
@@ -13384,7 +13390,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B339" t="s">
         <v>13</v>
@@ -13402,7 +13408,7 @@
         <v>3</v>
       </c>
       <c r="G339" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H339" t="s">
         <v>16</v>
@@ -13414,7 +13420,7 @@
         <v>14</v>
       </c>
       <c r="K339" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L339">
         <v>17891.46</v>
@@ -13422,7 +13428,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B340" t="s">
         <v>13</v>
@@ -13440,10 +13446,10 @@
         <v>3</v>
       </c>
       <c r="G340" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H340" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -13452,7 +13458,7 @@
         <v>18</v>
       </c>
       <c r="K340" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L340">
         <v>17963.169999999998</v>
@@ -13460,7 +13466,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B341" t="s">
         <v>13</v>
@@ -13478,10 +13484,10 @@
         <v>3</v>
       </c>
       <c r="G341" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H341" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I341">
         <v>1</v>
@@ -13490,7 +13496,7 @@
         <v>18</v>
       </c>
       <c r="K341" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L341">
         <v>18673.169999999998</v>
@@ -13498,7 +13504,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B342" t="s">
         <v>13</v>
@@ -13516,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="G342" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H342" t="s">
         <v>19</v>
@@ -13536,7 +13542,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s">
         <v>13</v>
@@ -13554,7 +13560,7 @@
         <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H343" t="s">
         <v>19</v>
@@ -13574,7 +13580,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B344" t="s">
         <v>13</v>
@@ -13592,7 +13598,7 @@
         <v>3</v>
       </c>
       <c r="G344" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H344" t="s">
         <v>21</v>
@@ -13612,7 +13618,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B345" t="s">
         <v>13</v>
@@ -13630,7 +13636,7 @@
         <v>3</v>
       </c>
       <c r="G345" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H345" t="s">
         <v>21</v>
@@ -13650,7 +13656,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B346" t="s">
         <v>13</v>
@@ -13668,7 +13674,7 @@
         <v>6</v>
       </c>
       <c r="G346" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H346" t="s">
         <v>16</v>
@@ -13680,7 +13686,7 @@
         <v>18</v>
       </c>
       <c r="K346" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L346">
         <v>17963.169999999998</v>
@@ -13688,7 +13694,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B347" t="s">
         <v>13</v>
@@ -13706,7 +13712,7 @@
         <v>6</v>
       </c>
       <c r="G347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H347" t="s">
         <v>16</v>
@@ -13718,7 +13724,7 @@
         <v>18</v>
       </c>
       <c r="K347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L347">
         <v>18673.169999999998</v>
@@ -13726,7 +13732,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B348" t="s">
         <v>13</v>
@@ -13744,10 +13750,10 @@
         <v>6</v>
       </c>
       <c r="G348" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H348" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -13756,7 +13762,7 @@
         <v>22</v>
       </c>
       <c r="K348" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L348">
         <v>19041.05</v>
@@ -13764,7 +13770,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B349" t="s">
         <v>13</v>
@@ -13782,10 +13788,10 @@
         <v>6</v>
       </c>
       <c r="G349" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H349" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I349">
         <v>1</v>
@@ -13794,7 +13800,7 @@
         <v>22</v>
       </c>
       <c r="K349" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L349">
         <v>19751.05</v>
@@ -13802,7 +13808,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B350" t="s">
         <v>13</v>
@@ -13820,7 +13826,7 @@
         <v>6</v>
       </c>
       <c r="G350" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H350" t="s">
         <v>19</v>
@@ -13840,7 +13846,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B351" t="s">
         <v>13</v>
@@ -13858,7 +13864,7 @@
         <v>6</v>
       </c>
       <c r="G351" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H351" t="s">
         <v>19</v>
@@ -13878,7 +13884,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B352" t="s">
         <v>13</v>
@@ -13896,7 +13902,7 @@
         <v>6</v>
       </c>
       <c r="G352" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H352" t="s">
         <v>21</v>
@@ -13916,7 +13922,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B353" t="s">
         <v>13</v>
@@ -13934,7 +13940,7 @@
         <v>6</v>
       </c>
       <c r="G353" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H353" t="s">
         <v>21</v>
@@ -13954,7 +13960,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B354" t="s">
         <v>13</v>
@@ -13972,7 +13978,7 @@
         <v>10</v>
       </c>
       <c r="G354" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H354" t="s">
         <v>16</v>
@@ -13984,7 +13990,7 @@
         <v>22</v>
       </c>
       <c r="K354" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L354">
         <v>19041.05</v>
@@ -13992,7 +13998,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B355" t="s">
         <v>13</v>
@@ -14010,7 +14016,7 @@
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H355" t="s">
         <v>16</v>
@@ -14022,7 +14028,7 @@
         <v>22</v>
       </c>
       <c r="K355" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L355">
         <v>19751.05</v>
@@ -14030,7 +14036,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B356" t="s">
         <v>13</v>
@@ -14048,10 +14054,10 @@
         <v>10</v>
       </c>
       <c r="G356" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H356" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I356">
         <v>0</v>
@@ -14060,7 +14066,7 @@
         <v>22</v>
       </c>
       <c r="K356" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L356">
         <v>19041.05</v>
@@ -14068,7 +14074,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B357" t="s">
         <v>13</v>
@@ -14086,10 +14092,10 @@
         <v>10</v>
       </c>
       <c r="G357" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H357" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -14098,7 +14104,7 @@
         <v>22</v>
       </c>
       <c r="K357" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L357">
         <v>19751.05</v>
@@ -14106,7 +14112,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B358" t="s">
         <v>13</v>
@@ -14124,7 +14130,7 @@
         <v>10</v>
       </c>
       <c r="G358" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H358" t="s">
         <v>19</v>
@@ -14144,7 +14150,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B359" t="s">
         <v>13</v>
@@ -14162,7 +14168,7 @@
         <v>10</v>
       </c>
       <c r="G359" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H359" t="s">
         <v>19</v>
@@ -14182,7 +14188,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B360" t="s">
         <v>13</v>
@@ -14200,7 +14206,7 @@
         <v>10</v>
       </c>
       <c r="G360" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H360" t="s">
         <v>21</v>
@@ -14220,7 +14226,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B361" t="s">
         <v>13</v>
@@ -14238,7 +14244,7 @@
         <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H361" t="s">
         <v>21</v>
